--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value554.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value554.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4967917185479093</v>
+        <v>1.451284646987915</v>
       </c>
       <c r="B1">
-        <v>0.6271560755237733</v>
+        <v>1.50369393825531</v>
       </c>
       <c r="C1">
-        <v>0.9156182130996304</v>
+        <v>1.608202695846558</v>
       </c>
       <c r="D1">
-        <v>2.718213159640863</v>
+        <v>2.262841939926147</v>
       </c>
       <c r="E1">
-        <v>3.597455911294599</v>
+        <v>3.802537441253662</v>
       </c>
     </row>
   </sheetData>
